--- a/sampledata/sample2.xlsx
+++ b/sampledata/sample2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koide\.streamlit\kikwebapp01\sampledata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4111CA53-14BA-44E4-95F8-F283639FAC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D03044-CB48-4FBE-B842-8D28D1A1E0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="24408" windowHeight="15132" tabRatio="364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="14508" windowHeight="12552" tabRatio="364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="データ2" sheetId="3" r:id="rId1"/>
+    <sheet name="data" sheetId="3" r:id="rId1"/>
+    <sheet name="setting" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">データ2!$A$1:$J$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$J$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -232,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -254,6 +255,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1255,4 +1257,50 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAC8C16-9528-4647-B7D4-C39D30A6DFAC}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>0.53472222222222221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>0.65277777777777779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>